--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +91,7 @@
     <t>Pla2r1</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.556778119628187</v>
+        <v>0.07287566666666666</v>
       </c>
       <c r="H2">
-        <v>0.556778119628187</v>
+        <v>0.218627</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05106178343368872</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05106178343368872</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.01122166124724</v>
+        <v>0.2283676666666667</v>
       </c>
       <c r="N2">
-        <v>7.01122166124724</v>
+        <v>0.685103</v>
       </c>
       <c r="O2">
-        <v>0.5490584253269631</v>
+        <v>0.01667656277951103</v>
       </c>
       <c r="P2">
-        <v>0.5490584253269631</v>
+        <v>0.01667656277951103</v>
       </c>
       <c r="Q2">
-        <v>3.903694812845652</v>
+        <v>0.01664244595344444</v>
       </c>
       <c r="R2">
-        <v>3.903694812845652</v>
+        <v>0.149782013581</v>
       </c>
       <c r="S2">
-        <v>0.5490584253269631</v>
+        <v>0.000851535037065706</v>
       </c>
       <c r="T2">
-        <v>0.5490584253269631</v>
+        <v>0.0008515350370657061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.07287566666666666</v>
+      </c>
+      <c r="H3">
+        <v>0.218627</v>
+      </c>
+      <c r="I3">
+        <v>0.05106178343368872</v>
+      </c>
+      <c r="J3">
+        <v>0.05106178343368872</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>7.032353333333333</v>
+      </c>
+      <c r="N3">
+        <v>21.09706</v>
+      </c>
+      <c r="O3">
+        <v>0.5135380308553764</v>
+      </c>
+      <c r="P3">
+        <v>0.5135380308553764</v>
+      </c>
+      <c r="Q3">
+        <v>0.5124874374022221</v>
+      </c>
+      <c r="R3">
+        <v>4.612386936619999</v>
+      </c>
+      <c r="S3">
+        <v>0.02622216771650018</v>
+      </c>
+      <c r="T3">
+        <v>0.02622216771650019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.07287566666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.218627</v>
+      </c>
+      <c r="I4">
+        <v>0.05106178343368872</v>
+      </c>
+      <c r="J4">
+        <v>0.05106178343368872</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.04110866666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.123326</v>
+      </c>
+      <c r="O4">
+        <v>0.003001962889296905</v>
+      </c>
+      <c r="P4">
+        <v>0.003001962889296904</v>
+      </c>
+      <c r="Q4">
+        <v>0.002995821489111111</v>
+      </c>
+      <c r="R4">
+        <v>0.026962393402</v>
+      </c>
+      <c r="S4">
+        <v>0.000153285578929249</v>
+      </c>
+      <c r="T4">
+        <v>0.000153285578929249</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.07287566666666666</v>
+      </c>
+      <c r="H5">
+        <v>0.218627</v>
+      </c>
+      <c r="I5">
+        <v>0.05106178343368872</v>
+      </c>
+      <c r="J5">
+        <v>0.05106178343368872</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6.392099333333333</v>
+      </c>
+      <c r="N5">
+        <v>19.176298</v>
+      </c>
+      <c r="O5">
+        <v>0.4667834434758157</v>
+      </c>
+      <c r="P5">
+        <v>0.4667834434758157</v>
+      </c>
+      <c r="Q5">
+        <v>0.4658285003162222</v>
+      </c>
+      <c r="R5">
+        <v>4.192456502845999</v>
+      </c>
+      <c r="S5">
+        <v>0.02383479510119358</v>
+      </c>
+      <c r="T5">
+        <v>0.02383479510119358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.556778119628187</v>
-      </c>
-      <c r="H3">
-        <v>0.556778119628187</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>5.75831494512042</v>
-      </c>
-      <c r="N3">
-        <v>5.75831494512042</v>
-      </c>
-      <c r="O3">
-        <v>0.4509415746730369</v>
-      </c>
-      <c r="P3">
-        <v>0.4509415746730369</v>
-      </c>
-      <c r="Q3">
-        <v>3.206103767371034</v>
-      </c>
-      <c r="R3">
-        <v>3.206103767371034</v>
-      </c>
-      <c r="S3">
-        <v>0.4509415746730369</v>
-      </c>
-      <c r="T3">
-        <v>0.4509415746730369</v>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.599873</v>
+      </c>
+      <c r="H6">
+        <v>1.799619</v>
+      </c>
+      <c r="I6">
+        <v>0.420312933174546</v>
+      </c>
+      <c r="J6">
+        <v>0.4203129331745459</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.2283676666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.685103</v>
+      </c>
+      <c r="O6">
+        <v>0.01667656277951103</v>
+      </c>
+      <c r="P6">
+        <v>0.01667656277951103</v>
+      </c>
+      <c r="Q6">
+        <v>0.1369915973063333</v>
+      </c>
+      <c r="R6">
+        <v>1.232924375757</v>
+      </c>
+      <c r="S6">
+        <v>0.007009375017125739</v>
+      </c>
+      <c r="T6">
+        <v>0.007009375017125738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.599873</v>
+      </c>
+      <c r="H7">
+        <v>1.799619</v>
+      </c>
+      <c r="I7">
+        <v>0.420312933174546</v>
+      </c>
+      <c r="J7">
+        <v>0.4203129331745459</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.032353333333333</v>
+      </c>
+      <c r="N7">
+        <v>21.09706</v>
+      </c>
+      <c r="O7">
+        <v>0.5135380308553764</v>
+      </c>
+      <c r="P7">
+        <v>0.5135380308553764</v>
+      </c>
+      <c r="Q7">
+        <v>4.218518891126666</v>
+      </c>
+      <c r="R7">
+        <v>37.96667002013999</v>
+      </c>
+      <c r="S7">
+        <v>0.2158466760455038</v>
+      </c>
+      <c r="T7">
+        <v>0.2158466760455037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.599873</v>
+      </c>
+      <c r="H8">
+        <v>1.799619</v>
+      </c>
+      <c r="I8">
+        <v>0.420312933174546</v>
+      </c>
+      <c r="J8">
+        <v>0.4203129331745459</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.04110866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.123326</v>
+      </c>
+      <c r="O8">
+        <v>0.003001962889296905</v>
+      </c>
+      <c r="P8">
+        <v>0.003001962889296904</v>
+      </c>
+      <c r="Q8">
+        <v>0.02465997919933333</v>
+      </c>
+      <c r="R8">
+        <v>0.221939812794</v>
+      </c>
+      <c r="S8">
+        <v>0.001261763827281517</v>
+      </c>
+      <c r="T8">
+        <v>0.001261763827281516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.599873</v>
+      </c>
+      <c r="H9">
+        <v>1.799619</v>
+      </c>
+      <c r="I9">
+        <v>0.420312933174546</v>
+      </c>
+      <c r="J9">
+        <v>0.4203129331745459</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.392099333333333</v>
+      </c>
+      <c r="N9">
+        <v>19.176298</v>
+      </c>
+      <c r="O9">
+        <v>0.4667834434758157</v>
+      </c>
+      <c r="P9">
+        <v>0.4667834434758157</v>
+      </c>
+      <c r="Q9">
+        <v>3.834447803384667</v>
+      </c>
+      <c r="R9">
+        <v>34.51003023046199</v>
+      </c>
+      <c r="S9">
+        <v>0.196195118284635</v>
+      </c>
+      <c r="T9">
+        <v>0.196195118284635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7544569999999999</v>
+      </c>
+      <c r="H10">
+        <v>2.263371</v>
+      </c>
+      <c r="I10">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="J10">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2283676666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.685103</v>
+      </c>
+      <c r="O10">
+        <v>0.01667656277951103</v>
+      </c>
+      <c r="P10">
+        <v>0.01667656277951103</v>
+      </c>
+      <c r="Q10">
+        <v>0.1722935846903333</v>
+      </c>
+      <c r="R10">
+        <v>1.550642262213</v>
+      </c>
+      <c r="S10">
+        <v>0.008815652725319582</v>
+      </c>
+      <c r="T10">
+        <v>0.008815652725319582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7544569999999999</v>
+      </c>
+      <c r="H11">
+        <v>2.263371</v>
+      </c>
+      <c r="I11">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="J11">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.032353333333333</v>
+      </c>
+      <c r="N11">
+        <v>21.09706</v>
+      </c>
+      <c r="O11">
+        <v>0.5135380308553764</v>
+      </c>
+      <c r="P11">
+        <v>0.5135380308553764</v>
+      </c>
+      <c r="Q11">
+        <v>5.305608198806666</v>
+      </c>
+      <c r="R11">
+        <v>47.75047378925999</v>
+      </c>
+      <c r="S11">
+        <v>0.2714691870933725</v>
+      </c>
+      <c r="T11">
+        <v>0.2714691870933725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7544569999999999</v>
+      </c>
+      <c r="H12">
+        <v>2.263371</v>
+      </c>
+      <c r="I12">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="J12">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04110866666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.123326</v>
+      </c>
+      <c r="O12">
+        <v>0.003001962889296905</v>
+      </c>
+      <c r="P12">
+        <v>0.003001962889296904</v>
+      </c>
+      <c r="Q12">
+        <v>0.03101472132733333</v>
+      </c>
+      <c r="R12">
+        <v>0.279132491946</v>
+      </c>
+      <c r="S12">
+        <v>0.001586913483086139</v>
+      </c>
+      <c r="T12">
+        <v>0.001586913483086138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7544569999999999</v>
+      </c>
+      <c r="H13">
+        <v>2.263371</v>
+      </c>
+      <c r="I13">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="J13">
+        <v>0.5286252833917653</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.392099333333333</v>
+      </c>
+      <c r="N13">
+        <v>19.176298</v>
+      </c>
+      <c r="O13">
+        <v>0.4667834434758157</v>
+      </c>
+      <c r="P13">
+        <v>0.4667834434758157</v>
+      </c>
+      <c r="Q13">
+        <v>4.822564086728666</v>
+      </c>
+      <c r="R13">
+        <v>43.403076780558</v>
+      </c>
+      <c r="S13">
+        <v>0.2467535300899872</v>
+      </c>
+      <c r="T13">
+        <v>0.2467535300899871</v>
       </c>
     </row>
   </sheetData>
